--- a/public/excel/test.xlsx
+++ b/public/excel/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\tools\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327C7083-D4CB-4971-AD79-A0BB48F5C80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEA69EC-8C80-401C-BD10-42E3EF3A8E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4381,7 +4381,7 @@
   <dimension ref="A1:Z107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4:N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/public/excel/test.xlsx
+++ b/public/excel/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\tools\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83D1ED7-1396-4013-9C18-5B7B00873618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243FD662-4DA3-48C4-A474-F5E649313123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="1363">
   <si>
     <t>ID</t>
   </si>
@@ -4203,12 +4203,6 @@
     <t>jìng</t>
   </si>
   <si>
-    <t>Tranquilidad / Calma</t>
-  </si>
-  <si>
-    <t>Confianza / Fe</t>
-  </si>
-  <si>
     <t>信</t>
   </si>
   <si>
@@ -4230,18 +4224,6 @@
     <t>kōng</t>
   </si>
   <si>
-    <t>Mente / Espíritu</t>
-  </si>
-  <si>
-    <t>Amor / Pasión</t>
-  </si>
-  <si>
-    <t>Trust / Faith</t>
-  </si>
-  <si>
-    <t>Love / Passion</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
@@ -4257,9 +4239,6 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>Tranquility / Calm</t>
-  </si>
-  <si>
     <t>Beauty</t>
   </si>
   <si>
@@ -4287,9 +4266,6 @@
     <t>Empty</t>
   </si>
   <si>
-    <t>Mind / Spirit</t>
-  </si>
-  <si>
     <t>Good luck</t>
   </si>
   <si>
@@ -4327,6 +4303,21 @@
   </si>
   <si>
     <t>Courage</t>
+  </si>
+  <si>
+    <t>Confianza</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Calma</t>
+  </si>
+  <si>
+    <t>Calm</t>
+  </si>
+  <si>
+    <t>Spirit</t>
   </si>
 </sst>
 </file>
@@ -4833,8 +4824,8 @@
   </sheetPr>
   <dimension ref="A1:Z108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4949,16 +4940,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>1325</v>
+        <v>1358</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1335</v>
+        <v>1359</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -4970,16 +4961,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -4997,10 +4988,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>1334</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1336</v>
+        <v>448</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -5084,7 +5075,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -5126,7 +5117,7 @@
         <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -5252,7 +5243,7 @@
         <v>55</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -5294,7 +5285,7 @@
         <v>61</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -5318,7 +5309,7 @@
         <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -5357,10 +5348,10 @@
         <v>1323</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>1324</v>
+        <v>1360</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1342</v>
+        <v>1361</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -5381,7 +5372,7 @@
         <v>72</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -5402,7 +5393,7 @@
         <v>75</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -5423,7 +5414,7 @@
         <v>78</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -5444,7 +5435,7 @@
         <v>81</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -5486,7 +5477,7 @@
         <v>88</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -5507,7 +5498,7 @@
         <v>91</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -5552,7 +5543,7 @@
         <v>98</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -5573,7 +5564,7 @@
         <v>101</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -5585,16 +5576,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>1330</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>1332</v>
-      </c>
       <c r="D35" s="18" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -5612,10 +5603,10 @@
         <v>103</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>1333</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1352</v>
+        <v>1362</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -5636,7 +5627,7 @@
         <v>106</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -5657,7 +5648,7 @@
         <v>109</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -5699,7 +5690,7 @@
         <v>115</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -5720,7 +5711,7 @@
         <v>118</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -5765,7 +5756,7 @@
         <v>125</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -5786,7 +5777,7 @@
         <v>128</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -5824,7 +5815,7 @@
         <v>131</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -5845,7 +5836,7 @@
         <v>134</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1360</v>
+        <v>1352</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -5866,7 +5857,7 @@
         <v>137</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1361</v>
+        <v>1353</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -5887,7 +5878,7 @@
         <v>140</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -5908,7 +5899,7 @@
         <v>143</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -5950,7 +5941,7 @@
         <v>146</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
